--- a/imageCreationExcel/back/109/109_10.xlsx
+++ b/imageCreationExcel/back/109/109_10.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>29.84036610145586</v>
+        <v>10.50778612639148</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.08173117821928</v>
+        <v>0.8110278166161385</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,14 +511,14 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.6586481087058156</v>
+        <v>0.3418002043503175</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_3_brightness29.84_contrast1.082_sharpness0.659.jpg</t>
+          <t>1_P_brightness10.508_contrast0.811_sharpness0.342.jpg</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8069149728330464</v>
+        <v>1.142379148132602</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.03129973784199887</v>
+        <v>0.04791704208032952</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -553,14 +553,14 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>13.05590523231238</v>
+        <v>18.63435103157859</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_7_contrast0.807_sharpness0.031_equalization13.056.jpg</t>
+          <t>2_B_contrast1.142_sharpness0.048_equalization18.634.jpg</t>
         </is>
       </c>
     </row>
@@ -570,39 +570,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.5855540905322759</v>
+        <v>0.8593734751175823</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.4662274870632435</v>
+        <v>0.9338215639809411</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>29.50030671080562</v>
+        <v>0.7717108106563271</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_9_gamma0.586_sharpness0.466_equalization29.5.jpg</t>
+          <t>3_2_contrast0.859_gamma0.934_sharpness0.772.jpg</t>
         </is>
       </c>
     </row>
@@ -612,39 +612,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9483696466689336</v>
+        <v>13.39592900030701</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.8379479157204834</v>
+        <v>1.182292762093187</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.6031098995238541</v>
+        <v>0.8578376226270721</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_8_contrast0.948_gamma0.838_sharpness0.603.jpg</t>
+          <t>4_2_brightness13.396_contrast1.182_gamma0.858.jpg</t>
         </is>
       </c>
     </row>
@@ -654,39 +654,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.118730096297569</v>
+        <v>3.269654248080204</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.3289740980849015</v>
+        <v>0.5454060417149673</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>16.24711671353688</v>
+        <v>0.9119036342572986</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_3_contrast1.119_sharpness0.329_equalization16.247.jpg</t>
+          <t>5_S_brightness3.27_gamma0.545_sharpness0.912.jpg</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.7508216127864771</v>
+        <v>0.5625705357388027</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.5458467799164555</v>
+        <v>0.4382059816880673</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -721,14 +721,14 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>30.60626996751235</v>
+        <v>4.996296105295152</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_2_gamma0.751_sharpness0.546_equalization30.606.jpg</t>
+          <t>6_8_gamma0.563_sharpness0.438_equalization4.996.jpg</t>
         </is>
       </c>
     </row>
@@ -738,39 +738,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>21.83448576578502</v>
+        <v>1.08070216705698</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.082254963646673</v>
+        <v>0.8822602468660321</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.6167526690643115</v>
+        <v>20.11137596394764</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_7_brightness21.834_contrast1.082_sharpness0.617.jpg</t>
+          <t>7_8_contrast1.081_sharpness0.882_equalization20.111.jpg</t>
         </is>
       </c>
     </row>
@@ -780,39 +780,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>17.52667910929864</v>
+        <v>1.188148025282634</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.173518074059104</v>
+        <v>0.6028572512036812</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.9926854026095449</v>
+        <v>13.42508391099187</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_P_brightness17.527_contrast1.174_gamma0.993.jpg</t>
+          <t>8_9_contrast1.188_gamma0.603_equalization13.425.jpg</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,30 +831,30 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>29.54427291919963</v>
+        <v>6.404383921670012</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.8804431632763001</v>
+        <v>1.118886311740908</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.1319876945814325</v>
+        <v>0.9661199590609812</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_9_brightness29.544_gamma0.88_sharpness0.132.jpg</t>
+          <t>9_E_brightness6.404_contrast1.119_gamma0.966.jpg</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.062399859622709</v>
+        <v>0.9751039215150689</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.6939403747518802</v>
+        <v>0.5813663972120895</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -889,14 +889,14 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.2308479741613058</v>
+        <v>0.2047274143788915</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_7_contrast1.062_gamma0.694_sharpness0.231.jpg</t>
+          <t>10_8_contrast0.975_gamma0.581_sharpness0.205.jpg</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.8085279012944605</v>
+        <v>0.8147229177807918</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.5585506657981301</v>
+        <v>0.9262835500869118</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>15.77928500986121</v>
+        <v>11.67684352127977</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_C_gamma0.809_sharpness0.559_equalization15.779.jpg</t>
+          <t>11_2_gamma0.815_sharpness0.926_equalization11.677.jpg</t>
         </is>
       </c>
     </row>
@@ -948,39 +948,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>10.71794590937135</v>
+        <v>1.044349990501619</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9044502402923779</v>
+        <v>0.757635046921338</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.9422508819328739</v>
+        <v>0.6613123936769623</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_E_brightness10.718_contrast0.904_gamma0.942.jpg</t>
+          <t>12_P_contrast1.044_gamma0.758_sharpness0.661.jpg</t>
         </is>
       </c>
     </row>
@@ -990,39 +990,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6.390764821237189</v>
+        <v>0.9188256754106883</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.9700043747354008</v>
+        <v>0.6024898444596303</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.8267609290068798</v>
+        <v>29.43836819699357</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_3_brightness6.391_contrast0.97_gamma0.827.jpg</t>
+          <t>13_P_contrast0.919_sharpness0.602_equalization29.438.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,39 +1032,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>19.53592036834617</v>
+        <v>1.040633596255295</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.047542171098751</v>
+        <v>1.072827548035054</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.8417667822983126</v>
+        <v>25.13506159028966</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_P_brightness19.536_contrast1.048_sharpness0.842.jpg</t>
+          <t>14_E_contrast1.041_gamma1.073_equalization25.135.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,39 +1074,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>7.134070201940555</v>
+        <v>0.8009063203592747</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.9399383886411317</v>
+        <v>0.206045109730751</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.824015848339567</v>
+        <v>5.774102251929898</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_T_brightness7.134_gamma0.94_sharpness0.824.jpg</t>
+          <t>15_0_contrast0.801_sharpness0.206_equalization5.774.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,24 +1116,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11.36767816695347</v>
+        <v>0.8123633222639399</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.8985192976449594</v>
+        <v>0.5714891889471566</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1141,14 +1141,14 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.5488027334351415</v>
+        <v>0.3424930524123835</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_3_brightness11.368_contrast0.899_sharpness0.549.jpg</t>
+          <t>16_I_contrast0.812_gamma0.571_sharpness0.342.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1167,30 +1167,30 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>20.24564644260439</v>
+        <v>9.565000789896567</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.7761043076977171</v>
+        <v>0.8746668508921766</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.8303885915552449</v>
+        <v>0.8433422033156419</v>
       </c>
       <c r="I18" t="n">
         <v>2</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_C_brightness20.246_gamma0.776_sharpness0.83.jpg</t>
+          <t>17_7_brightness9.565_contrast0.875_gamma0.843.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.007262779878495</v>
+        <v>0.814911600340243</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.032345697976597</v>
+        <v>0.9745942149407469</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>23.51583434653133</v>
+        <v>0.9337173063536838</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_1_contrast1.007_gamma1.032_equalization23.516.jpg</t>
+          <t>18_7_contrast0.815_gamma0.975_sharpness0.934.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,24 +1242,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.043351914345844</v>
+        <v>20.20590883977042</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.9106322022423782</v>
+        <v>1.065497080548202</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1267,14 +1267,14 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.3064977884034937</v>
+        <v>0.7685430285385526</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_P_contrast1.043_gamma0.911_sharpness0.306.jpg</t>
+          <t>19_I_brightness20.206_contrast1.065_sharpness0.769.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1293,15 +1293,15 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4.094850111590497</v>
+        <v>3.852280328701712</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.15669474238675</v>
+        <v>0.8632096412065338</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1309,14 +1309,14 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.9814628733903662</v>
+        <v>0.8192036572463403</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_T_brightness4.095_contrast1.157_sharpness0.981.jpg</t>
+          <t>20_S_brightness3.852_gamma0.863_sharpness0.819.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,39 +1326,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>15.81582407524403</v>
+        <v>1.121727482485114</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.9068656998082351</v>
+        <v>0.8859541756224171</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.4311602190840802</v>
+        <v>19.34942536120596</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_0_brightness15.816_contrast0.907_sharpness0.431.jpg</t>
+          <t>21_8_contrast1.122_gamma0.886_equalization19.349.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,39 +1368,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.085345174006736</v>
+        <v>28.34261132317937</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.1663435518973203</v>
+        <v>0.7380531619358585</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>7.144827840506539</v>
+        <v>0.1013002113277716</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_8_contrast1.085_sharpness0.166_equalization7.145.jpg</t>
+          <t>22_2_brightness28.343_gamma0.738_sharpness0.101.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1419,15 +1419,15 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.9703557153359154</v>
+        <v>1.017489776753099</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.10644551035875</v>
+        <v>0.7672275580387621</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1435,14 +1435,14 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>25.04259190148203</v>
+        <v>14.05008510419431</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_7_contrast0.97_sharpness0.106_equalization25.043.jpg</t>
+          <t>23_B_contrast1.017_gamma0.767_equalization14.05.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1461,30 +1461,30 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.067300315270121</v>
+        <v>0.9193353534986234</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.9438838714670046</v>
+        <v>0.07317262115916252</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.2016418423620335</v>
+        <v>24.04550713583069</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_C_contrast1.067_gamma0.944_sharpness0.202.jpg</t>
+          <t>24_B_contrast0.919_sharpness0.073_equalization24.046.jpg</t>
         </is>
       </c>
     </row>
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>7.90254160726751</v>
+        <v>7.838142739960623</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.6313574776050135</v>
+        <v>1.019804354942017</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1519,14 +1519,14 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.9015914135977307</v>
+        <v>0.9871133994257787</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_P_brightness7.903_gamma0.631_sharpness0.902.jpg</t>
+          <t>25_P_brightness7.838_gamma1.02_sharpness0.987.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,39 +1536,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>14.15805027379995</v>
+        <v>1.020985278987664</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.050737812751829</v>
+        <v>0.7902898950297903</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.9048862593760606</v>
+        <v>6.370279244858817</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_7_brightness14.158_contrast1.051_gamma0.905.jpg</t>
+          <t>26_C_contrast1.021_gamma0.79_equalization6.37.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.9710436161917233</v>
+        <v>0.8325187139653166</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.7756095715038114</v>
+        <v>0.8529408938713073</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1603,14 +1603,14 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>13.97669480331462</v>
+        <v>14.58380997780303</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_3_contrast0.971_sharpness0.776_equalization13.977.jpg</t>
+          <t>27_2_contrast0.833_sharpness0.853_equalization14.584.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,16 +1620,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.5146813799195102</v>
+        <v>1.099812915559506</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.59484932164617</v>
+        <v>0.4338497869350271</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1645,14 +1645,14 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>6.192602519901024</v>
+        <v>24.43030886521723</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_S_gamma0.515_sharpness0.595_equalization6.193.jpg</t>
+          <t>28_0_contrast1.1_sharpness0.434_equalization24.43.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,39 +1662,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.6648337972621723</v>
+        <v>0.9900886397857039</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.8689072645151733</v>
+        <v>0.5255684735608712</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>14.0497270295145</v>
+        <v>0.8761576804049618</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_E_gamma0.665_sharpness0.869_equalization14.05.jpg</t>
+          <t>29_7_contrast0.99_gamma0.526_sharpness0.876.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,24 +1704,24 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.8386076868345975</v>
+        <v>1.013309038401701</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.628845012630819</v>
+        <v>0.4862321983565996</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1729,14 +1729,14 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>24.37262690961502</v>
+        <v>31.1796076105333</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_7_contrast0.839_gamma0.629_equalization24.373.jpg</t>
+          <t>30_9_gamma1.013_sharpness0.486_equalization31.18.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1755,15 +1755,15 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.8868544450194302</v>
+        <v>0.957597920155478</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.8509020390660281</v>
+        <v>0.08446582588728929</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1771,14 +1771,14 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>28.28213833748968</v>
+        <v>25.68759354453973</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_C_contrast0.887_gamma0.851_equalization28.282.jpg</t>
+          <t>31_S_contrast0.958_sharpness0.084_equalization25.688.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,16 +1788,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>19.7926604572319</v>
+        <v>0.9767949507802776</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.024258522847191</v>
+        <v>0.614465583258058</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1813,14 +1813,14 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.9585014092618329</v>
+        <v>0.01082442877502552</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_9_brightness19.793_gamma1.024_sharpness0.959.jpg</t>
+          <t>32_2_contrast0.977_gamma0.614_sharpness0.011.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1839,15 +1839,15 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.9556913642473406</v>
+        <v>1.18250691664552</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.6777712715532055</v>
+        <v>0.8031649441992428</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1855,14 +1855,14 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>20.1326075125572</v>
+        <v>14.08019055342975</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_2_contrast0.956_gamma0.678_equalization20.133.jpg</t>
+          <t>33_S_contrast1.183_sharpness0.803_equalization14.08.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1881,30 +1881,30 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.117028493059657</v>
+        <v>1.088818202618689</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.9993273049609125</v>
+        <v>1.02573229729647</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>21.72281909478978</v>
+        <v>0.3751345087123331</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_P_contrast1.117_sharpness0.999_equalization21.723.jpg</t>
+          <t>34_I_contrast1.089_gamma1.026_sharpness0.375.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,39 +1914,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.6718930477981047</v>
+        <v>14.27752099165968</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.5539933960010297</v>
+        <v>0.836836793023778</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>9.726593082590821</v>
+        <v>0.4705890917921167</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_S_gamma0.672_sharpness0.554_equalization9.727.jpg</t>
+          <t>35_0_brightness14.278_gamma0.837_sharpness0.471.jpg</t>
         </is>
       </c>
     </row>
@@ -1965,15 +1965,15 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.132071230984211</v>
+        <v>1.159831265034925</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.1017544504672576</v>
+        <v>0.8547773085526453</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1981,14 +1981,14 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>8.919139249774904</v>
+        <v>14.10857475044481</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_1_contrast1.132_sharpness0.102_equalization8.919.jpg</t>
+          <t>36_1_contrast1.16_gamma0.855_equalization14.109.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1.167455936144387</v>
+        <v>0.8468480794657075</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2015,22 +2015,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.7640002908589244</v>
+        <v>0.5221507106316502</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.9000629437461238</v>
+        <v>26.26444255384763</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_B_contrast1.167_gamma0.764_sharpness0.9.jpg</t>
+          <t>37_3_contrast0.847_gamma0.522_equalization26.264.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,16 +2040,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.8612714076400696</v>
+        <v>1.078871788086837</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.3386206147312422</v>
+        <v>0.7517453635289904</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2065,14 +2065,14 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>10.67499965213642</v>
+        <v>29.19107977444505</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_2_contrast0.861_sharpness0.339_equalization10.675.jpg</t>
+          <t>38_B_gamma1.079_sharpness0.752_equalization29.191.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,39 +2082,39 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2.356854254939393</v>
+        <v>0.9480987765214469</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.8271218094353954</v>
+        <v>0.2021991154305542</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.9801363659475192</v>
+        <v>18.84768148647034</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_S_brightness2.357_contrast0.827_gamma0.98.jpg</t>
+          <t>39_E_contrast0.948_sharpness0.202_equalization18.848.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,39 +2124,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.055364033311229</v>
+        <v>4.775226210777887</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.0651689433462648</v>
+        <v>0.7248834109840336</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>6.009576154320666</v>
+        <v>0.9315056455504733</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_E_contrast1.055_sharpness0.065_equalization6.01.jpg</t>
+          <t>40_C_brightness4.775_gamma0.725_sharpness0.932.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,39 +2166,39 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.9117422208721137</v>
+        <v>20.83345310747919</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.2773790953941493</v>
+        <v>0.7618483754097823</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>13.63690424378187</v>
+        <v>0.7618753957019733</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_9_contrast0.912_sharpness0.277_equalization13.637.jpg</t>
+          <t>41_7_brightness20.833_gamma0.762_sharpness0.762.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,16 +2208,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.9835209794355991</v>
+        <v>0.8642351071983172</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.01842748269645352</v>
+        <v>0.9496684052848764</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2233,14 +2233,14 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>18.51468038249831</v>
+        <v>17.27025272591846</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_7_contrast0.984_sharpness0.018_equalization18.515.jpg</t>
+          <t>42_E_gamma0.864_sharpness0.95_equalization17.27.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2259,7 +2259,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.9054062842558805</v>
+        <v>0.5169312566467441</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.861149260461618</v>
+        <v>0.09929730501843892</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2275,14 +2275,14 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>30.15346954937556</v>
+        <v>24.25068886110411</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_8_gamma0.905_sharpness0.861_equalization30.153.jpg</t>
+          <t>43_3_gamma0.517_sharpness0.099_equalization24.251.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.9432434824261062</v>
+        <v>0.9301020828405856</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.5424049312548739</v>
+        <v>0.5818251018869872</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2317,14 +2317,14 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.09689148774925242</v>
+        <v>0.9563894241512949</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_9_contrast0.943_gamma0.542_sharpness0.097.jpg</t>
+          <t>44_0_contrast0.93_gamma0.582_sharpness0.956.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,24 +2334,24 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.062045561440092</v>
+        <v>1.176415672568848</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.5892656691660341</v>
+        <v>0.5825669076138116</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2359,14 +2359,14 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>6.957464331590762</v>
+        <v>28.06802876611965</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_8_gamma1.062_sharpness0.589_equalization6.957.jpg</t>
+          <t>45_3_contrast1.176_gamma0.583_equalization28.068.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>17.19696902776307</v>
+        <v>21.60235769585955</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2393,22 +2393,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.8666375664817545</v>
+        <v>1.189900753753202</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0.975916936493083</v>
+        <v>0.803351459521071</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_B_brightness17.197_contrast0.867_gamma0.976.jpg</t>
+          <t>46_T_brightness21.602_contrast1.19_sharpness0.803.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,24 +2418,24 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1.177893578803425</v>
+        <v>0.6777372171127867</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.5811992345652808</v>
+        <v>0.6074461062266818</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2443,14 +2443,14 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>31.73049690374804</v>
+        <v>4.285270015674637</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_S_contrast1.178_gamma0.581_equalization31.73.jpg</t>
+          <t>47_2_gamma0.678_sharpness0.607_equalization4.285.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,39 +2460,39 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1.1817086429025</v>
+        <v>26.98665713968157</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.01351900513520741</v>
+        <v>1.112390507432405</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>22.70500033067188</v>
+        <v>0.03572492466690994</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_B_contrast1.182_sharpness0.014_equalization22.705.jpg</t>
+          <t>48_7_brightness26.987_contrast1.112_sharpness0.036.jpg</t>
         </is>
       </c>
     </row>
